--- a/搞定数据哈哈.xlsx
+++ b/搞定数据哈哈.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SONE-617 [中文字幕]「オチンチン、勃っちゃった？おばさんでよければすぐに処理してあげる」働くおばさんが隠しきれない巨乳でボッキさせちゃった男子達をこっそり射精サポート 職業別シチュエーション 奥田咲</t>
+          <t>SAME-151  [中文字幕] ダメです、お父さんに気づかれちゃう… 神木蘭</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JUR-237 [中文字幕]「風俗経験なし」と言っていた婚約者が凄テク過ぎて疑心暗鬼にヌカれまくる僕。 明里つむぎ</t>
+          <t>SONE-628 [中文字幕] 僕が彼女とSEXしないよういつも朝勃ちチ●ポを狙って欲情防止ヌキしてくるやきもち焼きの射精せたがり妹 川越にこ</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IPZZ-506 [中文字幕] 美人家庭教師みつり先生の接吻レクチャー個人レッスン 長浜みつり</t>
+          <t>IPZZ-503 [中文字幕] 夏の終わりの汗だく中出し性交 人妻になったお従姉ちゃんの無防備な色気にボクは理性を抑えられず…。 明里つむぎ</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SONE-626 [中文字幕]「内気でもじもじして押しに弱い」彼女の妹に欲情し、こっそりハメ続けた最低な僕。 三田真鈴</t>
+          <t>IPZZ-520 [中文字幕]「初泡姫チャレンジします」 即尺即ハメ！！天然美少女のイチャイチャ御奉仕ソープ 愛才りあ</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IPZZ-503 [中文字幕] 夏の終わりの汗だく中出し性交 人妻になったお従姉ちゃんの無防備な色気にボクは理性を抑えられず…。 明里つむぎ</t>
+          <t>IPZZ-519 [中文字幕] あなたの脳内を快楽で埋め尽くす 佐々木さきプレミアムオナニーサポート</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IPZZ-519 [中文字幕] あなたの脳内を快楽で埋め尽くす 佐々木さきプレミアムオナニーサポート</t>
+          <t>WAWA-033 [中文字幕] 人妻爆乳快楽露出！！スリルと羞恥心で淫らにイキ狂う野外SEX！ 二宮和香</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SONE-623 [中文字幕] 姉がメンズエステのバイトを始めたんだが、僕の体で際どいマッサージの練習をしてきてヤバい！ 黒島玲衣</t>
+          <t>MMUS-095 [中文字幕] 小悪魔挑発美少女 杏ここ</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DGCEMD-515 ★配信限定！特典映像付★凄テクで男を飼い慣らす女はこの世に存在する 愛瀬ゆうり</t>
+          <t>SONE-607 [中文字幕] スタイルも愛嬌も抜群な美少女のニコニコ笑顔に精液ぶっかける背徳大量顔射オナサポ 乃坂ひより</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SONE-629 [中文字幕] 際どいVIO施術に勃起しちゃったら…サービス精神で優しくヌイてくれる綺麗でエッチなメンズ脱毛のお姉さん 花アリス</t>
+          <t>VEC-688 [中文字幕] 母の親友 名取沙雪</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IPZZ-505 [中文字幕] 絶対に逃がさない連れ回しレ×プ！1泊2日地獄デート 誘拐してまでヤリたい女 出張と偽り私を軟禁し犯し続けた2日間 さくらわかな</t>
+          <t>DASS-572 [中文字幕] 憑依おじさんin藤森里穂 生意気な巨乳女を乗っ取り代わりに彼氏と情交。</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SONE-562 [中文字幕] エスワン20周年記念 AV業界史に残る最強タッグ作品 顔面偏差値No.1の女子生徒たちがヌキハメ放題で来場者を満足させてくれるエスワン学園射精祭</t>
+          <t>JUR-244 [中文字幕] 台所は家庭内不倫の巣窟。 市来まひろ</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FPRE-149 [中文字幕] 結婚5年目！失禁ヌードモデルNTR 上司に爆乳ボデイを喰われ悦ぶ妻の衝撃浮気映像 宝田もなみ</t>
+          <t>IPZZ-512 [中文字幕] 僕の恋人が家で待ってるのに、 終電逃がし後輩女子社員の家に泊まる流れに…ノーパンノーブラ 部屋着に興奮した絶倫のボクは一晩中ヤりまくった。。。 役野満里奈</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SONE-258 [中文字幕] 今いちばん抱きたいカラダ 川越にこ、理性吹き飛ぶ。[禁欲×媚薬漬け]童顔悶える異常絶頂アクメ</t>
+          <t>SONE-634 [中文字幕] 出張先で軽蔑している中年セクハラ上司とまさかの相部屋に…朝まで続く絶倫性交に不覚にも感じてしまったIカップ新人社員 篠真有</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DASS-619 [中文字幕]「お願い！チ○ポ見せて！」新刊のために美白ふわとろ巨乳で僕をフル勃起させてくる隣のエロ同人作家お姉さん。 雪代一鳳</t>
+          <t>SONE-617 [中文字幕]「オチンチン、勃っちゃった？おばさんでよければすぐに処理してあげる」働くおばさんが隠しきれない巨乳でボッキさせちゃった男子達をこっそり射精サポート 職業別シチュエーション 奥田咲</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SONE-541 夢乃真实药物服药 870 天后身体变得非常敏感，性欲增强，她弓起后背狂喜不已尽情享受sex 夢乃あいか</t>
+          <t>SONE-629 [中文字幕] 際どいVIO施術に勃起しちゃったら…サービス精神で優しくヌイてくれる綺麗でエッチなメンズ脱毛のお姉さん 花アリス</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SONE-627 [中文字幕] 毎朝同じ車両に乗るJcup巨乳美人を我慢できずにメチャクチャ痴●してやったら… まさかの俺のテクの虜に。 五条恋</t>
+          <t>SONE-562 [中文字幕] エスワン20周年記念 AV業界史に残る最強タッグ作品 顔面偏差値No.1の女子生徒たちがヌキハメ放題で来場者を満足させてくれるエスワン学園射精祭</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SONE-607 [中文字幕] スタイルも愛嬌も抜群な美少女のニコニコ笑顔に精液ぶっかける背徳大量顔射オナサポ 乃坂ひより</t>
+          <t>SONE-626 [中文字幕]「内気でもじもじして押しに弱い」彼女の妹に欲情し、こっそりハメ続けた最低な僕。 三田真鈴</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SONE-628 [中文字幕] 僕が彼女とSEXしないよういつも朝勃ちチ●ポを狙って欲情防止ヌキしてくるやきもち焼きの射精せたがり妹 川越にこ</t>
+          <t>SONE-623 [中文字幕] 姉がメンズエステのバイトを始めたんだが、僕の体で際どいマッサージの練習をしてきてヤバい！ 黒島玲衣</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IPZZ-507 [中文字幕] もうセックスなしでは生きていけない… 絶頂イキ 197回 マ×コ痙攣 2255回 鬼ピストン 3686回 快感潮 測定不能 絶頂覚醒 藤咲舞</t>
+          <t>DASS-580 [中文字幕] 無自覚な巨乳誘惑を振り撒く自宅ネイリスト妻がクレーマーの餌食に…理不尽謝罪で羞恥土下座クンニされた倦怠期マ○コは即イキ！舐めアクメ中毒堕ちし繰り返す言いなり濃厚不倫 わか菜ほの</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SONE-618 [中文字幕] 超濃厚SEX契約 成績不振の生保レディは異常精力オヤジが住むボロ屋敷に出向き媚薬で絶倫にさせられケダモノ交尾 miru</t>
+          <t>DASS-619 [中文字幕]「お願い！チ○ポ見せて！」新刊のために美白ふわとろ巨乳で僕をフル勃起させてくる隣のエロ同人作家お姉さん。 雪代一鳳</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SONE-634 [中文字幕] 出張先で軽蔑している中年セクハラ上司とまさかの相部屋に…朝まで続く絶倫性交に不覚にも感じてしまったIカップ新人社員 篠真有</t>
+          <t>SONE-569 [中文字幕] 快感！ 初?体?験めちゃイキ3本番 「脱いだらすごい」の最高峰大学生 マシュマロ純白Hカップ性感開発スペシャル 南沢海香</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IPZZ-512 [中文字幕] 僕の恋人が家で待ってるのに、 終電逃がし後輩女子社員の家に泊まる流れに…ノーパンノーブラ 部屋着に興奮した絶倫のボクは一晩中ヤりまくった。。。 役野満里奈</t>
+          <t>IPZZ-178 [中文字幕] 婚前同窓会NTR 性格最悪セックス最高なクズ元カレの絶倫ピストンに再び堕ちてしまったボクの婚約者 桃乃木かな</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SONE-636 [中文字幕] 真面目で清純な水泳部エースも媚薬エステの前では理性保てず下品にイキ堕ち 洗練されたアスリートボディが際立つ卑猥な競泳水着を着せられて…。 夏空りか</t>
+          <t>SONE-541 夢乃真实药物服药 870 天后身体变得非常敏感，性欲增强，她弓起后背狂喜不已尽情享受sex 夢乃あいか</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SONE-662 [中文字幕] 夢、青春、セックス。新人NO.1STYLE バズりたいアイドルインフルエンサー 桜乃りの AVデビュー</t>
+          <t>PPPE-089 [中文字幕] 会社の飲み会で終電を逃した僕に「うちに泊まっていきます？」と巨乳の後輩女子が小悪魔な囁き。部屋着の胸チラ誘惑に負けて何度もSEXした 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>JUR-188 [中文字幕] W秘書 どM社長を芯まで操る過密なブラック搾精スケジューリング</t>
+          <t>SONE-642 最强最可爱！河北彩伽三、二、一......来吧！加油！”啪！我人生的巅峰肯定就是现在，这喷射的一刻！ 河北彩伽(原:河北彩花)番号作品</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>JUR-240 [中文字幕]『週3日、妻とSEXをしている。』と自慢してきた友人から週5日、毎回4発、合計20発中出ししてそいつの妻を寝取ってやった。 藤かんな</t>
+          <t>SONE-618 [中文字幕] 超濃厚SEX契約 成績不振の生保レディは異常精力オヤジが住むボロ屋敷に出向き媚薬で絶倫にさせられケダモノ交尾 miru</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JUR-244 [中文字幕] 台所は家庭内不倫の巣窟。 市来まひろ</t>
+          <t>BLK-621 絶倫の僕でも音を上げるW性欲モンスターギャルと巣ごもりハーレム生活 森日向子 朝日奈かれん</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>JUR-263 [中文字幕] 滴る愛液、本?能?全?開SEXー。 夫の上司に自分が心底’雌’だと理解らされた着床交尾7日間ー。 宮下華奈</t>
+          <t>PPPE-311  [中文字幕] 隣家の育乳中ノーブラ人妻のおっぱいタッチ誘惑に理性ぶっ飛び果てるまで生ハメサポート不倫 森日向子</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ROE-315 [中文字幕] セックスの相性抜群なパート妻?美希さんと時間限定超濃密なショートタイム密会 僕は、毎回チ〇ポの萎える暇がないほど時短射精をしています…。 赤井美希</t>
+          <t>PRED-457 [中文字幕] 綺麗なお姉さんがアナタの五感を刺激するしっとり囁き愛情オナニーサポート 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GENU-019 [中文字幕] 豊満×爆乳 淫乱ドスケベW熟女二輪車ソープ発射無制限中出しぶっかけSP！！</t>
+          <t>PRED-468 [中文字幕] もう一度、妻と愛し合う。倦怠期だった私達夫婦が久しぶりにSEXしたら…やっぱり、体の相性抜群で何度も、何度も、中出し求めて… 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DASS-570 [中文字幕] 痴姦親父の寸止めリモバイ調教に発情野外べろチュー所構わず膝ガクガク小鹿アクメって自ら求める中出し堕ち性交 倉本すみれ</t>
+          <t>PRED-501 [中文字幕] 彼女が至近距離にいるのに密着＆ゾクゾク囁き！背徳感で気持ちよすぎる中出し誘惑 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VEC-687 [中文字幕] バイト先で働く美しい人妻を家に連れ込み中出しセックス 小野坂ゆいか</t>
+          <t>PRED-506 [中文字幕] 僕をダメにする痴女セフレお姉さん 即フェラごっくん＆杭打ち中出しで朝まで何度も射精され続けて… 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VEC-688 [中文字幕] 母の親友 名取沙雪</t>
+          <t>PRED-428 [中文字幕] 風俗イクほどセックス好きだったんだ？ キミ（彼氏）が2度と風俗行けないように10発中出ししても止めない騎乗位で生ハメしまくってヤルからな！ 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DASS-574 [中文字幕] 男嫌いなスレンダー美乳の連れ子に媚薬を●ませて一週間。子宮が疼き、理性を失った娘は、嫌がりながらも俺の巨根を求めるようになった。 東條なつ</t>
+          <t>PPPE-244 [中文字幕] 店長の僕は巨乳バイトのノーブラ誘惑に負けてまだ女子〇生なのに理性を保てず喰べてしまった 楪カレン</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FSDSS-974 [中文字幕] AV制作アシスタントに密着 パワハラ上司やセクハラ男優の無茶振りにも健気に働く女性AD 吉高寧々</t>
+          <t>YMDS-202 [中文字幕] いちゃラブ密着特濃せっくちゅ 憧れの白石ももを独占した一夜。</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DASS-580 [中文字幕] 無自覚な巨乳誘惑を振り撒く自宅ネイリスト妻がクレーマーの餌食に…理不尽謝罪で羞恥土下座クンニされた倦怠期マ○コは即イキ！舐めアクメ中毒堕ちし繰り返す言いなり濃厚不倫 わか菜ほの</t>
+          <t>IPZZ-505 [中文字幕] 絶対に逃がさない連れ回しレ×プ！1泊2日地獄デート 誘拐してまでヤリたい女 出張と偽り私を軟禁し犯し続けた2日間 さくらわかな</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DASS-581 [中文字幕] エアコンが壊れた蒸し猛暑日。不意にみた旦那以外の勃起チ○ポに欲情して、、汗だく体液交尾に溺れていく欲求不満の田舎若妻 松本いちか</t>
+          <t>JUR-237 [中文字幕]「風俗経験なし」と言っていた婚約者が凄テク過ぎて疑心暗鬼にヌカれまくる僕。 明里つむぎ</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IPZZ-501 [中文字幕] 人妻自宅エステサロン 醜いゲス隣人の絶倫チ〇ポで何度もイカされてしまった美人エステティシャン 桃乃木かな</t>
+          <t>IPZZ-506 [中文字幕] 美人家庭教師みつり先生の接吻レクチャー個人レッスン 長浜みつり</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DASS-601 [中文字幕] 派遣マッサージ師にきわどい秘部を触られすぎて、快楽に耐え切れず寝取られました。 巴ひかり</t>
+          <t>DGCEMD-515 ★配信限定！特典映像付★凄テクで男を飼い慣らす女はこの世に存在する 愛瀬ゆうり</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NSFS-360 [中文字幕] ザ?和姦20 犯●れた男に狂う妻 西野絵美</t>
+          <t>FPRE-149 [中文字幕] 結婚5年目！失禁ヌードモデルNTR 上司に爆乳ボデイを喰われ悦ぶ妻の衝撃浮気映像 宝田もなみ</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NSFS-362 [中文字幕] 上司の前で??私の妻がヌードモデルになりました。14 徳永しおり</t>
+          <t>SONE-258 [中文字幕] 今いちばん抱きたいカラダ 川越にこ、理性吹き飛ぶ。[禁欲×媚薬漬け]童顔悶える異常絶頂アクメ</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>KSBJ-366 [中文字幕] 家出妻 居候をさせてもらう条件は中出し肉便器 蒼山愛奈</t>
+          <t>SONE-627 [中文字幕] 毎朝同じ車両に乗るJcup巨乳美人を我慢できずにメチャクチャ痴●してやったら… まさかの俺のテクの虜に。 五条恋</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NUKA-74 [中文字幕] 抜かずの六発中出し 母と息子の密着交尾 岸本藍花</t>
+          <t>IPZZ-507 [中文字幕] もうセックスなしでは生きていけない… 絶頂イキ 197回 マ×コ痙攣 2255回 鬼ピストン 3686回 快感潮 測定不能 絶頂覚醒 藤咲舞</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MKMP-615 [中文字幕]「あなた、ごめんなさい」人妻屈辱エステ研修 旦那がリストラされた人妻はセクハラ研修でスケベ親父に嬲られイカされ慰み物と化す 都月るいさ</t>
+          <t>SONE-636 [中文字幕] 真面目で清純な水泳部エースも媚薬エステの前では理性保てず下品にイキ堕ち 洗練されたアスリートボディが際立つ卑猥な競泳水着を着せられて…。 夏空りか</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>XVSR-800 [中文字幕] 森沢かなの我慢できない極上騎乗位中出しSEX</t>
+          <t>SONE-662 [中文字幕] 夢、青春、セックス。新人NO.1STYLE バズりたいアイドルインフルエンサー 桜乃りの AVデビュー</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MKMP-616 [中文字幕] 実家に帰省したら地味な元同級生と再会…成長した隠しきれない巨乳がエロ過ぎて、押しに弱い彼女と毎日何度もハメまくってます。 鳳みゆ</t>
+          <t>JUR-188 [中文字幕] W秘書 どM社長を芯まで操る過密なブラック搾精スケジューリング</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WAWA-032 [中文字幕] 濡れた小麦肌の美少女とびしょびしょイキまくり中出しSEX！ 前乃菜々</t>
+          <t>JUR-240 [中文字幕]『週3日、妻とSEXをしている。』と自慢してきた友人から週5日、毎回4発、合計20発中出ししてそいつの妻を寝取ってやった。 藤かんな</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>WAWA-033 [中文字幕] 人妻爆乳快楽露出！！スリルと羞恥心で淫らにイキ狂う野外SEX！ 二宮和香</t>
+          <t>JUR-263 [中文字幕] 滴る愛液、本?能?全?開SEXー。 夫の上司に自分が心底’雌’だと理解らされた着床交尾7日間ー。 宮下華奈</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NACR-917 [中文字幕] 快楽エステルーム キモおじの凄テクに快感を覚えてしまった私 秋元さちか</t>
+          <t>ROE-315 [中文字幕] セックスの相性抜群なパート妻?美希さんと時間限定超濃密なショートタイム密会 僕は、毎回チ〇ポの萎える暇がないほど時短射精をしています…。 赤井美希</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>XVSR-801 [中文字幕] 淫口 咥えたチ〇コは数万本！？凄テクフェラチオで止まらない射精！！斎藤あみり</t>
+          <t>GENU-019 [中文字幕] 豊満×爆乳 淫乱ドスケベW熟女二輪車ソープ発射無制限中出しぶっかけSP！！</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>EUUD-61 [中文字幕] 50代！40代！！30代！！！三世代たれちち熟女とボインハーレム中出しSEX</t>
+          <t>DASS-570 [中文字幕] 痴姦親父の寸止めリモバイ調教に発情野外べろチュー所構わず膝ガクガク小鹿アクメって自ら求める中出し堕ち性交 倉本すみれ</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>XVSR-802 [中文字幕] AV女優が完全に「素」のプライベート状態、柏木こなつをハメドリッ！</t>
+          <t>VEC-687 [中文字幕] バイト先で働く美しい人妻を家に連れ込み中出しセックス 小野坂ゆいか</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NACR-919 [中文字幕] 夫の兄と私のヌード撮影会 ファインダー越しに裸を見られることに快楽を覚えた私… 東凛</t>
+          <t>DASS-574 [中文字幕] 男嫌いなスレンダー美乳の連れ子に媚薬を●ませて一週間。子宮が疼き、理性を失った娘は、嫌がりながらも俺の巨根を求めるようになった。 東條なつ</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HOMA-150 [中文字幕] 彼女が不在中。密かにずっと大好きだった親友の彼氏を寝取ってヤリまくった32時間 宮城りえ</t>
+          <t>FSDSS-974 [中文字幕] AV制作アシスタントに密着 パワハラ上司やセクハラ男優の無茶振りにも健気に働く女性AD 吉高寧々</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LUCY-006 [中文字幕] 彼女の姉に《彼女が酔い潰れている間に》寝取られてしまった僕…。 那賀崎ゆきね</t>
+          <t>DASS-581 [中文字幕] エアコンが壊れた蒸し猛暑日。不意にみた旦那以外の勃起チ○ポに欲情して、、汗だく体液交尾に溺れていく欲求不満の田舎若妻 松本いちか</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NACR-921 [中文字幕] メンズエステに行ったらまさかのエリート女子社員が！？立場を悪用しタダマン女にしてやった！！ 澪川はるか</t>
+          <t>IPZZ-501 [中文字幕] 人妻自宅エステサロン 醜いゲス隣人の絶倫チ〇ポで何度もイカされてしまった美人エステティシャン 桃乃木かな</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>YMDS-202 [中文字幕] いちゃラブ密着特濃せっくちゅ 憧れの白石ももを独占した一夜。</t>
+          <t>DASS-601 [中文字幕] 派遣マッサージ師にきわどい秘部を触られすぎて、快楽に耐え切れず寝取られました。 巴ひかり</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MTALL-098 [中文字幕] ご主人様が勃起したら即性処理巨乳汗だく全裸メイドにチ○ポ見張られ性活 五日市芽依 月野かすみ</t>
+          <t>NSFS-360 [中文字幕] ザ?和姦20 犯●れた男に狂う妻 西野絵美</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MIAB-317 [中文字幕] 不登校オタク生徒をノーパンデカ尻で誘惑し蒸れたパンスト美脚アナルを嗅がせて痴女る熱ケツ女教師の生ハメ20発生活指導 森日向子</t>
+          <t>NSFS-362 [中文字幕] 上司の前で??私の妻がヌードモデルになりました。14 徳永しおり</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MIDV-999 我那个性骚扰老板，我恨透了他，知道了我的弱点，于是我们在一次出差时同住一间房。即使太阳已经升起两次，他还是继续在我体内射了十次，我终于屈服了。 ..新ありな</t>
+          <t>KSBJ-366 [中文字幕] 家出妻 居候をさせてもらう条件は中出し肉便器 蒼山愛奈</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MEYD-880 修学旅行生を狙う美脚人妻キャビンアテンダント パンスト誘惑＆杭打ちピストンでイキまくる！ 宮西ひかる</t>
+          <t>NUKA-74 [中文字幕] 抜かずの六発中出し 母と息子の密着交尾 岸本藍花</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SONE-012 [中文字幕] パイズリで発情する淫乱メイドに仕立てられた神乳Jcupお姉さん 凪ひかる</t>
+          <t>MKMP-615 [中文字幕]「あなた、ごめんなさい」人妻屈辱エステ研修 旦那がリストラされた人妻はセクハラ研修でスケベ親父に嬲られイカされ慰み物と化す 都月るいさ</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MIDV-640 [中文字幕] 先輩ウチで飲み直しませんか？ 後輩女子社員のパンスト誘惑に甘え ささやき淫語手コキで焦らされ感度高まり始発後もハメ狂った延長交尾17発 宮下玲奈</t>
+          <t>XVSR-800 [中文字幕] 森沢かなの我慢できない極上騎乗位中出しSEX</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SONE-008 [中文字幕] 思春期男子は濡れた黒パンスト女教師の夢を見る～突然の豪雨で帰宅困難になった担任と生徒の一夜～ 星宮一花</t>
+          <t>MKMP-616 [中文字幕] 実家に帰省したら地味な元同級生と再会…成長した隠しきれない巨乳がエロ過ぎて、押しに弱い彼女と毎日何度もハメまくってます。 鳳みゆ</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[4KUHD] MEYD-927 「やめてっ孕んじゃう…！」夫が海外出張中の20日間、夫の部下に毎日中出しされています。 天海つばさ</t>
+          <t>WAWA-032 [中文字幕] 濡れた小麦肌の美少女とびしょびしょイキまくり中出しSEX！ 前乃菜々</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SONE-553 与皮肤白皙的少女进行两天一夜的温泉约会，以及她赤裸裸的SEX 白上咲花</t>
+          <t>NACR-917 [中文字幕] 快楽エステルーム キモおじの凄テクに快感を覚えてしまった私 秋元さちか</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>START-053 旦那の連れ子に溜まり切った性の捌け口として性欲処理玩具にされました。あまりの絶倫勃起チ○ポに夫とするより感じてしまい… 小湊よつ葉</t>
+          <t>XVSR-801 [中文字幕] 淫口 咥えたチ〇コは数万本！？凄テクフェラチオで止まらない射精！！斎藤あみり</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SONE-096 [中文字幕] 凪ひかる 1周年記念作品 おっぱい大好きファン大集合！神乳Jカップで暴発パイズリ＆素人チ●ポ大乱交13発射スペシャル</t>
+          <t>EUUD-61 [中文字幕] 50代！40代！！30代！！！三世代たれちち熟女とボインハーレム中出しSEX</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SONE-622 [中文字幕] 若き囮捜査官、媚薬漬け痴●に完全敗北。 明日葉みつは</t>
+          <t>XVSR-802 [中文字幕] AV女優が完全に「素」のプライベート状態、柏木こなつをハメドリッ！</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HMN-633 当我醒来时，讨厌的老板就在我面前......他给了我春药，我们在同一个房间里做爱直到早上。 小坂七香</t>
+          <t>NACR-919 [中文字幕] 夫の兄と私のヌード撮影会 ファインダー越しに裸を見られることに快楽を覚えた私… 東凛</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SONE-582 超级可爱狡猾的学生！作为她的班主任，我无法抵抗她仰视的诱惑 川越にこ (@kawagoeniko)番号作品</t>
+          <t>HOMA-150 [中文字幕] 彼女が不在中。密かにずっと大好きだった親友の彼氏を寝取ってヤリまくった32時間 宮城りえ</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SSIS-858 [中文字幕] 教師のくせにクソデカなエロ乳してんだから俺らに犯●れて当然って、分かるよね？ 凪ひかる</t>
+          <t>LUCY-006 [中文字幕] 彼女の姉に《彼女が酔い潰れている間に》寝取られてしまった僕…。 那賀崎ゆきね</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>IPZZ-514 [中文字幕] 禁欲解放＆媚薬覚醒 Wの効果で超キメセク 白雲あめ</t>
+          <t>NACR-921 [中文字幕] メンズエステに行ったらまさかのエリート女子社員が！？立場を悪用しタダマン女にしてやった！！ 澪川はるか</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SONE-635 [中文字幕] 石田佳蓮、解禁巨根FUCK！！！ 地上波アイドルおま●こ崩壊</t>
+          <t>MTALL-098 [中文字幕] ご主人様が勃起したら即性処理巨乳汗だく全裸メイドにチ○ポ見張られ性活 五日市芽依 月野かすみ</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SONE-620 [中文字幕] 服越しでも分かるKカップが強●魔の目に留まり、拉致られ、大量媚薬に漬けられオーバードーズ！ ペニス中毒トリップ大乱交 凪ひかる</t>
+          <t>MIAB-317 [中文字幕] 不登校オタク生徒をノーパンデカ尻で誘惑し蒸れたパンスト美脚アナルを嗅がせて痴女る熱ケツ女教師の生ハメ20発生活指導 森日向子</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SONE-631 [中文字幕] 出張先で大?大?大嫌いなセクハラおじさん上司と相部屋に…朝まで続く絶倫性交でまさかの絶頂、遂には軽蔑中年男のピストンを求めるほどふしだらになったLカップ新入社員 田野憂</t>
+          <t>MIDV-999 我那个性骚扰老板，我恨透了他，知道了我的弱点，于是我们在一次出差时同住一间房。即使太阳已经升起两次，他还是继续在我体内射了十次，我终于屈服了。 ..新ありな</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>IPZZ-520 [中文字幕]「初泡姫チャレンジします」 即尺即ハメ！！天然美少女のイチャイチャ御奉仕ソープ 愛才りあ</t>
+          <t>MEYD-880 修学旅行生を狙う美脚人妻キャビンアテンダント パンスト誘惑＆杭打ちピストンでイキまくる！ 宮西ひかる</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>EBWH-090 [中文字幕] 見た目で選んだ俺の愛人はエグいほどドスケベ絶倫 ～チ●ポ欲しがり美女たちの奪い合い中出し性交～ 響蓮 設楽ゆうひ</t>
+          <t>SONE-012 [中文字幕] パイズリで発情する淫乱メイドに仕立てられた神乳Jcupお姉さん 凪ひかる</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-308 美脚下半身が大絶頂するまで[媚薬?巨根]ピストンを欲しがるデカチンキメセク大好き脚長スケベお姉さん 楓ふうあ</t>
+          <t>MIDV-640 [中文字幕] 先輩ウチで飲み直しませんか？ 後輩女子社員のパンスト誘惑に甘え ささやき淫語手コキで焦らされ感度高まり始発後もハメ狂った延長交尾17発 宮下玲奈</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>IPZZ-178 [中文字幕] 婚前同窓会NTR 性格最悪セックス最高なクズ元カレの絶倫ピストンに再び堕ちてしまったボクの婚約者 桃乃木かな</t>
+          <t>SONE-008 [中文字幕] 思春期男子は濡れた黒パンスト女教師の夢を見る～突然の豪雨で帰宅困難になった担任と生徒の一夜～ 星宮一花</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ADN-538 [中文字幕] 僕の家に転がり込んできたお姉さんとむちゃくちゃセックスした話。 白峰ミウ</t>
+          <t>[4KUHD] MEYD-927 「やめてっ孕んじゃう…！」夫が海外出張中の20日間、夫の部下に毎日中出しされています。 天海つばさ</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ABF-075 [抽選でサイン入り衣装プレゼント実施中]天然成分由来 瀧本雫葉汁 120% 83[MGSだけのおまけ映像付き+15分]</t>
+          <t>SONE-553 与皮肤白皙的少女进行两天一夜的温泉约会，以及她赤裸裸的SEX 白上咲花</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>JUQ-532 [中文字幕] Madonna20周年記念！！豪華専属の共演作品！！ 修学旅行の下見先で先輩女教師2人と相部屋…一泊二日で計10発、夜が明けるまで何度も何度も抜かれまくった僕</t>
+          <t>START-053 旦那の連れ子に溜まり切った性の捌け口として性欲処理玩具にされました。あまりの絶倫勃起チ○ポに夫とするより感じてしまい… 小湊よつ葉</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ABF-087 [中文字幕][抽選でサイン入り衣装プレゼント実施中]俺の従順ペット候補生 06 涼森れむ[MGSだけのおまけ映像付き+10分]</t>
+          <t>SONE-096 [中文字幕] 凪ひかる 1周年記念作品 おっぱい大好きファン大集合！神乳Jカップで暴発パイズリ＆素人チ●ポ大乱交13発射スペシャル</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MEYD-951 [中文字幕] 田舎に帰省してきた発情期痴女（兄嫁）とドロドロSEXをしたあの夏ー。[汗だくだく、ザーメンドクドク] 夢実かなえ</t>
+          <t>SONE-622 [中文字幕] 若き囮捜査官、媚薬漬け痴●に完全敗北。 明日葉みつは</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MEYD-931 [中文字幕]「今日は、中に出していいよ。」 寿退社をして地元に戻った憧れの女上司から出張中に連絡が来てそのままお酒を飲んで僕が泊まっているホテルで朝まで中出しSEXをしまくったー。 夢実かなえ</t>
+          <t>HMN-633 当我醒来时，讨厌的老板就在我面前......他给了我春药，我们在同一个房间里做爱直到早上。 小坂七香</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SONE-569 [中文字幕] 快感！ 初?体?験めちゃイキ3本番 「脱いだらすごい」の最高峰大学生 マシュマロ純白Hカップ性感開発スペシャル 南沢海香</t>
+          <t>SONE-582 超级可爱狡猾的学生！作为她的班主任，我无法抵抗她仰视的诱惑 川越にこ (@kawagoeniko)番号作品</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SONE-587 如此美丽的女孩的口交和快乐的大量喷射 榊原萌（@moe._.nyanvv）番号作品</t>
+          <t>SSIS-858 [中文字幕] 教師のくせにクソデカなエロ乳してんだから俺らに犯●れて当然って、分かるよね？ 凪ひかる</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SONE-615 [中文字幕] 最強ヒロインAV初体験3本番 瀬戸環奈</t>
+          <t>IPZZ-514 [中文字幕] 禁欲解放＆媚薬覚醒 Wの効果で超キメセク 白雲あめ</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SONE-182 [中文字幕] 終電を逃したバイト先店長と女子大生はその後…ホテルで朝まで甘くて切ない性交に溺れてしまった、イケない純愛相部屋NTR 三田真鈴</t>
+          <t>SONE-635 [中文字幕] 石田佳蓮、解禁巨根FUCK！！！ 地上波アイドルおま●こ崩壊</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>IPZZ-508 [中文字幕] 超問題作解禁！！ 家庭訪問先のゴミ部屋親父に媚薬キメセクかまされイカされ続けた潔癖クソ真面目女教師 楓カレン</t>
+          <t>SONE-620 [中文字幕] 服越しでも分かるKカップが強●魔の目に留まり、拉致られ、大量媚薬に漬けられオーバードーズ！ ペニス中毒トリップ大乱交 凪ひかる</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[4KUHD] CAWD-628 2ヶ月セックスお預けされフライト前からムラムラ限界…渡航先に着くなり機長とホテル直行し早朝フライトまでの 12 時間ケダモノみたいにハメ狂った巨乳キャビンアテンダント 伊藤舞雪</t>
+          <t>SONE-631 [中文字幕] 出張先で大?大?大嫌いなセクハラおじさん上司と相部屋に…朝まで続く絶倫性交でまさかの絶頂、遂には軽蔑中年男のピストンを求めるほどふしだらになったLカップ新入社員 田野憂</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-089 男を虜にして離さない天性のモテSEXを持つ川越にこの初体験3本番</t>
+          <t>EBWH-090 [中文字幕] 見た目で選んだ俺の愛人はエグいほどドスケベ絶倫 ～チ●ポ欲しがり美女たちの奪い合い中出し性交～ 響蓮 設楽ゆうひ</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-350 終電逃してセクハラ店長とまさかの相部屋に…大嫌いなのに感じ、大嫌いなのに濡れ、大嫌いなのに喘ぎ、大好きな彼氏にウソをついてハメまくってしまった 川越にこ</t>
+          <t>[4KUHD] SONE-308 美脚下半身が大絶頂するまで[媚薬?巨根]ピストンを欲しがるデカチンキメセク大好き脚長スケベお姉さん 楓ふうあ</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-088 快楽で瞳トロける天性のモテSEX 新人NO.1STYLE 川越にこ AVデビュー</t>
+          <t>ADN-538 [中文字幕] 僕の家に転がり込んできたお姉さんとむちゃくちゃセックスした話。 白峰ミウ</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SONE-197 [中文字幕]「にこ、いっぱい射精して欲しいな」ひと時も目を離さず照れるほどに顔が近い あざとく全てを受け入れてくれる全肯定エステ 川越にこ</t>
+          <t>ABF-075 [抽選でサイン入り衣装プレゼント実施中]天然成分由来 瀧本雫葉汁 120% 83[MGSだけのおまけ映像付き+15分]</t>
         </is>
       </c>
     </row>
